--- a/owlcms/src/main/resources/templates/records/exportRecords.xlsx
+++ b/owlcms/src/main/resources/templates/records/exportRecords.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA5C445B-E4AE-49DA-BAFA-B9983976FA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288FD7C1-D42D-4E4F-B195-054D142C4D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2805" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewRecords" sheetId="1" r:id="rId1"/>
+    <sheet name="values" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Lift</t>
   </si>
@@ -131,12 +132,18 @@
   </si>
   <si>
     <t>${r.groupNameString}</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,9 +207,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -227,9 +231,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -242,35 +243,33 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -588,621 +587,666 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="19" customWidth="1"/>
-    <col min="7" max="8" width="8.5703125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="19" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11" style="15" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="15" customWidth="1"/>
-    <col min="15" max="15" width="32.28515625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="8" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="12.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="15" customWidth="1"/>
+    <col min="7" max="8" width="8.5703125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11" style="13" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="32.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="9"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="9"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="9"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="9"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="9"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="9"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="9"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D2">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:F1048576" xr:uid="{A2E907D7-3179-4C92-B9E8-43D2D96CBEC9}">
       <formula1>0</formula1>
-      <formula2>200</formula2>
+      <formula2>120</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:H1048576" xr:uid="{53FB7450-D8BD-4FB4-A0E8-29CC05EF8875}">
+      <formula1>0</formula1>
+      <formula2>250</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{0D3A4D6F-91CB-4258-A9E3-9ED6F739084F}">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD6A1ACE-E119-406B-B54E-8F08A2EE531D}">
+          <x14:formula1>
+            <xm:f>values!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A7292F-CD7A-44ED-9ECC-F46A88F50B15}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/owlcms/src/main/resources/templates/records/exportRecords.xlsx
+++ b/owlcms/src/main/resources/templates/records/exportRecords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288FD7C1-D42D-4E4F-B195-054D142C4D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E4482B-A5EF-40FE-A4B7-C671422038A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewRecords" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,94 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jean-François Lamy</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{C6FF4C17-205A-4117-9526-D4356C492D3F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>owlcms:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+for non-heavyweight category use a number
+45 59 55 64 ...
+for heavyweight category use &gt; followed by number
+&gt;81 &gt;87 &gt;102 &gt;109 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{E929A3F5-8334-4A41-8BFE-3F8D0356CC97}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>owlcms:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Columns from K to O are optional and are not used by the system
+You can leave them empty.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{17BBEB5E-9C88-41B3-B3AF-34E640F0734C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">owlcms:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Column P indicates the session in which the record was set.
+This indicates a new record established in the current competition.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
@@ -101,9 +189,6 @@
     <t>${r.bwCatLower}</t>
   </si>
   <si>
-    <t>${r.bwCatUpper}</t>
-  </si>
-  <si>
     <t>${r.recordLift}</t>
   </si>
   <si>
@@ -138,13 +223,16 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>${r.bwCatString}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +263,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -202,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -252,16 +353,19 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,11 +691,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,9 +706,10 @@
     <col min="4" max="4" width="7.85546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="15" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="15" customWidth="1"/>
-    <col min="7" max="8" width="8.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="20" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="11" style="13" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" style="7" customWidth="1"/>
@@ -631,13 +736,13 @@
         <v>11</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>30</v>
+      <c r="H1" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -675,7 +780,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="9"/>
       <c r="J2" s="18"/>
       <c r="K2" s="9"/>
@@ -704,32 +809,32 @@
       <c r="G3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="N3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="Q3" s="9"/>
     </row>
@@ -743,7 +848,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="3"/>
       <c r="J4" s="19"/>
       <c r="K4" s="3"/>
@@ -759,7 +864,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="3"/>
       <c r="J5" s="19"/>
       <c r="K5" s="3"/>
@@ -775,7 +880,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="3"/>
       <c r="J6" s="19"/>
       <c r="K6" s="3"/>
@@ -791,7 +896,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="3"/>
       <c r="J7" s="19"/>
       <c r="K7" s="3"/>
@@ -807,7 +912,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="3"/>
       <c r="J8" s="19"/>
       <c r="K8" s="3"/>
@@ -823,7 +928,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="3"/>
       <c r="J9" s="19"/>
       <c r="K9" s="3"/>
@@ -839,7 +944,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="3"/>
       <c r="J10" s="19"/>
       <c r="K10" s="3"/>
@@ -855,7 +960,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="3"/>
       <c r="J11" s="19"/>
       <c r="K11" s="3"/>
@@ -871,7 +976,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="3"/>
       <c r="J12" s="19"/>
       <c r="K12" s="3"/>
@@ -887,7 +992,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="3"/>
       <c r="J13" s="19"/>
       <c r="K13" s="3"/>
@@ -903,7 +1008,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="3"/>
       <c r="J14" s="19"/>
       <c r="K14" s="3"/>
@@ -919,7 +1024,7 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="3"/>
       <c r="J15" s="19"/>
       <c r="K15" s="3"/>
@@ -935,7 +1040,7 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="3"/>
       <c r="J16" s="19"/>
       <c r="K16" s="3"/>
@@ -951,7 +1056,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="3"/>
       <c r="J17" s="19"/>
       <c r="K17" s="3"/>
@@ -967,7 +1072,7 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="3"/>
       <c r="J18" s="19"/>
       <c r="K18" s="3"/>
@@ -983,7 +1088,7 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="3"/>
       <c r="J19" s="19"/>
       <c r="K19" s="3"/>
@@ -999,7 +1104,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="3"/>
       <c r="J20" s="19"/>
       <c r="K20" s="3"/>
@@ -1015,7 +1120,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="3"/>
       <c r="J21" s="19"/>
       <c r="K21" s="3"/>
@@ -1031,7 +1136,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="3"/>
       <c r="J22" s="19"/>
       <c r="K22" s="3"/>
@@ -1047,7 +1152,7 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="3"/>
       <c r="J23" s="19"/>
       <c r="K23" s="3"/>
@@ -1063,7 +1168,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="3"/>
       <c r="J24" s="19"/>
       <c r="K24" s="3"/>
@@ -1079,7 +1184,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="3"/>
       <c r="J25" s="19"/>
       <c r="K25" s="3"/>
@@ -1095,7 +1200,7 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="3"/>
       <c r="J26" s="19"/>
       <c r="K26" s="3"/>
@@ -1111,7 +1216,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="3"/>
       <c r="J27" s="19"/>
       <c r="K27" s="3"/>
@@ -1127,7 +1232,7 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="3"/>
       <c r="J28" s="19"/>
       <c r="K28" s="3"/>
@@ -1143,7 +1248,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="3"/>
       <c r="J29" s="19"/>
       <c r="K29" s="3"/>
@@ -1159,7 +1264,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="3"/>
       <c r="J30" s="19"/>
       <c r="K30" s="3"/>
@@ -1175,7 +1280,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="3"/>
       <c r="J31" s="19"/>
       <c r="K31" s="3"/>
@@ -1195,7 +1300,7 @@
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:H1048576" xr:uid="{53FB7450-D8BD-4FB4-A0E8-29CC05EF8875}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 H1:H2 H4:H1048576" xr:uid="{53FB7450-D8BD-4FB4-A0E8-29CC05EF8875}">
       <formula1>0</formula1>
       <formula2>250</formula2>
     </dataValidation>
@@ -1206,6 +1311,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1238,12 +1344,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/owlcms/src/main/resources/templates/records/exportRecords.xlsx
+++ b/owlcms/src/main/resources/templates/records/exportRecords.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E4482B-A5EF-40FE-A4B7-C671422038A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B367115-C037-4A1F-95CA-6D3B1ECA6F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewRecords" sheetId="1" r:id="rId1"/>
-    <sheet name="values" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -118,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Lift</t>
   </si>
@@ -150,9 +149,6 @@
     <t>AgeGroup</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>ageLow</t>
   </si>
   <si>
@@ -219,13 +215,10 @@
     <t>${r.groupNameString}</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>${r.bwCatString}</t>
+  </si>
+  <si>
+    <t>M/F</t>
   </si>
 </sst>
 </file>
@@ -695,7 +688,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,19 +723,19 @@
         <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -766,13 +759,13 @@
         <v>6</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -789,58 +782,58 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="N3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1317,42 +1310,12 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD6A1ACE-E119-406B-B54E-8F08A2EE531D}">
           <x14:formula1>
-            <xm:f>values!$A$2:$A$3</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D4</xm:sqref>
+          <xm:sqref>D2 D4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A7292F-CD7A-44ED-9ECC-F46A88F50B15}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>